--- a/M_results2.xlsx
+++ b/M_results2.xlsx
@@ -509,7 +509,7 @@
         <v>18366.77976124748</v>
       </c>
       <c r="G2" t="n">
-        <v>2918.207402066929</v>
+        <v>3433.634747468903</v>
       </c>
       <c r="H2" t="n">
         <v>18366.90918786444</v>
@@ -581,7 +581,7 @@
         <v>15871.23797097186</v>
       </c>
       <c r="G4" t="n">
-        <v>2643.164600776073</v>
+        <v>2645.466439439495</v>
       </c>
       <c r="H4" t="n">
         <v>15871.19617185172</v>
@@ -653,7 +653,7 @@
         <v>22988.18357483107</v>
       </c>
       <c r="G6" t="n">
-        <v>10904.14251352184</v>
+        <v>10878.46756592403</v>
       </c>
       <c r="H6" t="n">
         <v>22982.92572225885</v>
@@ -725,7 +725,7 @@
         <v>14909.10953297456</v>
       </c>
       <c r="G8" t="n">
-        <v>13364.40161589159</v>
+        <v>13364.13433663062</v>
       </c>
       <c r="H8" t="n">
         <v>14908.6801686659</v>
@@ -797,7 +797,7 @@
         <v>0.5837217448411384</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4780660588796932</v>
+        <v>0.4854997550978752</v>
       </c>
       <c r="H10" t="n">
         <v>0.5836682062969287</v>
@@ -869,7 +869,7 @@
         <v>0.5974124791765755</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4650212147100217</v>
+        <v>0.4653017991301022</v>
       </c>
       <c r="H12" t="n">
         <v>0.5975320405078098</v>
@@ -941,7 +941,7 @@
         <v>0.5745665827421106</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5204686963425699</v>
+        <v>0.5197513536697246</v>
       </c>
       <c r="H14" t="n">
         <v>0.5754045419685526</v>
@@ -1013,7 +1013,7 @@
         <v>0.6198205884132394</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5627821528904592</v>
+        <v>0.5518221880778028</v>
       </c>
       <c r="H16" t="n">
         <v>0.6197933833524213</v>
@@ -1085,7 +1085,7 @@
         <v>0.5225715638388778</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4193811230027325</v>
+        <v>0.3968524202367871</v>
       </c>
       <c r="H18" t="n">
         <v>0.5225611130361335</v>
@@ -1121,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1157,7 +1157,7 @@
         <v>0.5171512165180602</v>
       </c>
       <c r="G20" t="n">
-        <v>0.556761184322085</v>
+        <v>0.5560700206533264</v>
       </c>
       <c r="H20" t="n">
         <v>0.5171121148925037</v>
@@ -1229,7 +1229,7 @@
         <v>0.5235109048734028</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4063527249827822</v>
+        <v>0.4058824691153337</v>
       </c>
       <c r="H22" t="n">
         <v>0.52357654302484</v>
@@ -1301,7 +1301,7 @@
         <v>0.5322251939238014</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5171438863374631</v>
+        <v>0.5411544319913155</v>
       </c>
       <c r="H24" t="n">
         <v>0.5320037031368519</v>
@@ -1334,13 +1334,13 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
         <v>3</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>6</v>
